--- a/xlsx/西弗吉尼亚州_intext.xlsx
+++ b/xlsx/西弗吉尼亚州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="409">
   <si>
     <t>西弗吉尼亚州</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_西弗吉尼亚州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_西弗吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E%E5%B7%9E%E6%97%97</t>
   </si>
   <si>
-    <t>西維吉尼亞州州旗</t>
+    <t>西维吉尼亚州州旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_West_Virginia</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E8%90%8A%C2%B7%E6%91%A9%E7%88%BE%C2%B7%E5%8D%A1%E7%9A%AE%E6%89%98</t>
   </si>
   <si>
-    <t>雪萊·摩爾·卡皮托</t>
+    <t>雪莱·摩尔·卡皮托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%95%E6%8B%89%E5%A5%91%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>阿帕拉契山脈</t>
+    <t>阿帕拉契山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%A4</t>
@@ -215,19 +215,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B2%B3%E5%B3%BD%E5%A4%A7%E6%A9%8B</t>
   </si>
   <si>
-    <t>新河峽大橋</t>
+    <t>新河峡大桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%A3</t>
   </si>
   <si>
-    <t>縣</t>
+    <t>县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E8%81%AF%E7%9B%9F%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅聯盟國</t>
+    <t>美利坚联盟国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A1</t>
@@ -305,19 +305,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>合眾國</t>
+    <t>合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BB%8D</t>
   </si>
   <si>
-    <t>北軍</t>
+    <t>北军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E8%90%8A%E5%80%AB</t>
   </si>
   <si>
-    <t>麥克萊倫</t>
+    <t>麦克莱伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
@@ -329,37 +329,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%99%A2%E5%88%B6</t>
   </si>
   <si>
-    <t>兩院制</t>
+    <t>两院制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>眾議院</t>
+    <t>众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>參議院</t>
+    <t>参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E8%81%B7</t>
   </si>
   <si>
-    <t>全職</t>
+    <t>全职</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80</t>
   </si>
   <si>
-    <t>社區</t>
+    <t>社区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬里蘭州</t>
+    <t>马里兰州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
@@ -389,13 +389,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1</t>
   </si>
   <si>
-    <t>東</t>
+    <t>东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A2%E7%A9%8D</t>
   </si>
   <si>
-    <t>面積</t>
+    <t>面积</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E5%8D%97%E5%A4%9A%E4%BA%9E%E6%B2%B3</t>
   </si>
   <si>
-    <t>謝南多亞河</t>
+    <t>谢南多亚河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%93%B6%E8%A1%8C</t>
@@ -455,85 +455,85 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E6%88%90%E7%BA%96%E7%B6%AD</t>
   </si>
   <si>
-    <t>合成纖維</t>
+    <t>合成纤维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1890%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1890年人口普查</t>
+    <t>美国1890年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1900%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1900年人口普查</t>
+    <t>美国1900年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1910%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1910年人口普查</t>
+    <t>美国1910年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1920年人口普查</t>
+    <t>美国1920年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1930年人口普查</t>
+    <t>美国1930年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1940年人口普查</t>
+    <t>美国1940年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1950年人口普查</t>
+    <t>美国1950年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1960年人口普查</t>
+    <t>美国1960年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1970年人口普查</t>
+    <t>美国1970年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1980年人口普查</t>
+    <t>美国1980年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1990年人口普查</t>
+    <t>美国1990年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2000年人口普查</t>
+    <t>美国2000年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2010%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2010年人口普查</t>
+    <t>美国2010年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E7%A7%8D%E4%BA%BA</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
   </si>
   <si>
-    <t>美國原住民</t>
+    <t>美国原住民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%85%8B%E6%96%AF%E5%A0%A1_(%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>帕克斯堡 (西維吉尼亞州)</t>
+    <t>帕克斯堡 (西维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%AF%BA%E7%93%A6%E5%8E%BF</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/70%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>70號州際公路</t>
+    <t>70号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/77%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
@@ -623,19 +623,19 @@
     <t>https://zh.wikipedia.org/wiki/81%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>81號州際公路</t>
+    <t>81号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西維吉尼亞大學</t>
+    <t>西维吉尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%AD%87%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>馬歇爾大學</t>
+    <t>马歇尔大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bluefield_State_College</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>西弗吉尼亞大學理工學院</t>
+    <t>西弗吉尼亚大学理工学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/West_Virginia_State_University</t>
@@ -713,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>查爾斯頓大學</t>
+    <t>查尔斯顿大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ohio_Valley_College</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E9%9D%88%E8%80%B6%E7%A9%8C%E6%9C%83%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>惠靈耶穌會大學</t>
+    <t>惠灵耶稣会大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCAA</t>
@@ -743,37 +743,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9%E9%87%91%E9%B6%AF</t>
   </si>
   <si>
-    <t>巴爾的摩金鶯</t>
+    <t>巴尔的摩金莺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維吉尼亞州</t>
+    <t>维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B8%95%E7%81%A3%E8%9D%A0%E9%AD%9F</t>
   </si>
   <si>
-    <t>坦帕灣蝠魟</t>
+    <t>坦帕湾蝠魟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%88%BE%E7%93%A6%E5%9F%BA%E9%87%80%E9%85%92%E4%BA%BA</t>
   </si>
   <si>
-    <t>密爾瓦基釀酒人</t>
+    <t>密尔瓦基酿酒人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%E9%A0%93</t>
   </si>
   <si>
-    <t>查爾斯頓</t>
+    <t>查尔斯顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/U.S._Census_Bureau</t>
@@ -791,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -815,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -833,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -857,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -893,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -917,13 +917,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
   </si>
   <si>
-    <t>马里兰州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -935,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -947,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -959,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -1007,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -1025,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -1085,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -1097,19 +1094,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -1127,7 +1124,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -1139,7 +1136,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -1151,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -1163,25 +1160,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1211,7 +1208,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1229,7 +1226,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -5994,7 +5991,7 @@
         <v>299</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>114</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6020,10 +6017,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>300</v>
+      </c>
+      <c r="F153" t="s">
         <v>301</v>
-      </c>
-      <c r="F153" t="s">
-        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6049,10 +6046,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>302</v>
+      </c>
+      <c r="F154" t="s">
         <v>303</v>
-      </c>
-      <c r="F154" t="s">
-        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6078,10 +6075,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>304</v>
+      </c>
+      <c r="F155" t="s">
         <v>305</v>
-      </c>
-      <c r="F155" t="s">
-        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6107,10 +6104,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>306</v>
+      </c>
+      <c r="F156" t="s">
         <v>307</v>
-      </c>
-      <c r="F156" t="s">
-        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6136,10 +6133,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>308</v>
+      </c>
+      <c r="F157" t="s">
         <v>309</v>
-      </c>
-      <c r="F157" t="s">
-        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6165,10 +6162,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>310</v>
+      </c>
+      <c r="F158" t="s">
         <v>311</v>
-      </c>
-      <c r="F158" t="s">
-        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6194,10 +6191,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>312</v>
+      </c>
+      <c r="F159" t="s">
         <v>313</v>
-      </c>
-      <c r="F159" t="s">
-        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6223,10 +6220,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>314</v>
+      </c>
+      <c r="F160" t="s">
         <v>315</v>
-      </c>
-      <c r="F160" t="s">
-        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6252,10 +6249,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>316</v>
+      </c>
+      <c r="F161" t="s">
         <v>317</v>
-      </c>
-      <c r="F161" t="s">
-        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6281,10 +6278,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>318</v>
+      </c>
+      <c r="F162" t="s">
         <v>319</v>
-      </c>
-      <c r="F162" t="s">
-        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6310,10 +6307,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>320</v>
+      </c>
+      <c r="F163" t="s">
         <v>321</v>
-      </c>
-      <c r="F163" t="s">
-        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6339,10 +6336,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>322</v>
+      </c>
+      <c r="F164" t="s">
         <v>323</v>
-      </c>
-      <c r="F164" t="s">
-        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6368,10 +6365,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>324</v>
+      </c>
+      <c r="F165" t="s">
         <v>325</v>
-      </c>
-      <c r="F165" t="s">
-        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6397,10 +6394,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>326</v>
+      </c>
+      <c r="F166" t="s">
         <v>327</v>
-      </c>
-      <c r="F166" t="s">
-        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6455,10 +6452,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F168" t="s">
         <v>329</v>
-      </c>
-      <c r="F168" t="s">
-        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6484,10 +6481,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>330</v>
+      </c>
+      <c r="F169" t="s">
         <v>331</v>
-      </c>
-      <c r="F169" t="s">
-        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6513,10 +6510,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>332</v>
+      </c>
+      <c r="F170" t="s">
         <v>333</v>
-      </c>
-      <c r="F170" t="s">
-        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6542,10 +6539,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>334</v>
+      </c>
+      <c r="F171" t="s">
         <v>335</v>
-      </c>
-      <c r="F171" t="s">
-        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6571,10 +6568,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>336</v>
+      </c>
+      <c r="F172" t="s">
         <v>337</v>
-      </c>
-      <c r="F172" t="s">
-        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6600,10 +6597,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>338</v>
+      </c>
+      <c r="F173" t="s">
         <v>339</v>
-      </c>
-      <c r="F173" t="s">
-        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6629,10 +6626,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>340</v>
+      </c>
+      <c r="F174" t="s">
         <v>341</v>
-      </c>
-      <c r="F174" t="s">
-        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6658,10 +6655,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>342</v>
+      </c>
+      <c r="F175" t="s">
         <v>343</v>
-      </c>
-      <c r="F175" t="s">
-        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6687,10 +6684,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>344</v>
+      </c>
+      <c r="F176" t="s">
         <v>345</v>
-      </c>
-      <c r="F176" t="s">
-        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6716,10 +6713,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>346</v>
+      </c>
+      <c r="F177" t="s">
         <v>347</v>
-      </c>
-      <c r="F177" t="s">
-        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6774,10 +6771,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>348</v>
+      </c>
+      <c r="F179" t="s">
         <v>349</v>
-      </c>
-      <c r="F179" t="s">
-        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -6803,10 +6800,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>350</v>
+      </c>
+      <c r="F180" t="s">
         <v>351</v>
-      </c>
-      <c r="F180" t="s">
-        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6832,10 +6829,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>352</v>
+      </c>
+      <c r="F181" t="s">
         <v>353</v>
-      </c>
-      <c r="F181" t="s">
-        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6861,10 +6858,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>354</v>
+      </c>
+      <c r="F182" t="s">
         <v>355</v>
-      </c>
-      <c r="F182" t="s">
-        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6890,10 +6887,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>356</v>
+      </c>
+      <c r="F183" t="s">
         <v>357</v>
-      </c>
-      <c r="F183" t="s">
-        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6919,10 +6916,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>358</v>
+      </c>
+      <c r="F184" t="s">
         <v>359</v>
-      </c>
-      <c r="F184" t="s">
-        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6948,10 +6945,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>360</v>
+      </c>
+      <c r="F185" t="s">
         <v>361</v>
-      </c>
-      <c r="F185" t="s">
-        <v>362</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6977,10 +6974,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>362</v>
+      </c>
+      <c r="F186" t="s">
         <v>363</v>
-      </c>
-      <c r="F186" t="s">
-        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7006,10 +7003,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>364</v>
+      </c>
+      <c r="F187" t="s">
         <v>365</v>
-      </c>
-      <c r="F187" t="s">
-        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7035,10 +7032,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>366</v>
+      </c>
+      <c r="F188" t="s">
         <v>367</v>
-      </c>
-      <c r="F188" t="s">
-        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7064,10 +7061,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>368</v>
+      </c>
+      <c r="F189" t="s">
         <v>369</v>
-      </c>
-      <c r="F189" t="s">
-        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7093,10 +7090,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>370</v>
+      </c>
+      <c r="F190" t="s">
         <v>371</v>
-      </c>
-      <c r="F190" t="s">
-        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7122,10 +7119,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>372</v>
+      </c>
+      <c r="F191" t="s">
         <v>373</v>
-      </c>
-      <c r="F191" t="s">
-        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7151,10 +7148,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>374</v>
+      </c>
+      <c r="F192" t="s">
         <v>375</v>
-      </c>
-      <c r="F192" t="s">
-        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7180,10 +7177,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>376</v>
+      </c>
+      <c r="F193" t="s">
         <v>377</v>
-      </c>
-      <c r="F193" t="s">
-        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7209,10 +7206,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>378</v>
+      </c>
+      <c r="F194" t="s">
         <v>379</v>
-      </c>
-      <c r="F194" t="s">
-        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7238,10 +7235,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>380</v>
+      </c>
+      <c r="F195" t="s">
         <v>381</v>
-      </c>
-      <c r="F195" t="s">
-        <v>382</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7267,10 +7264,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>382</v>
+      </c>
+      <c r="F196" t="s">
         <v>383</v>
-      </c>
-      <c r="F196" t="s">
-        <v>384</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7296,10 +7293,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>384</v>
+      </c>
+      <c r="F197" t="s">
         <v>385</v>
-      </c>
-      <c r="F197" t="s">
-        <v>386</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7325,10 +7322,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>386</v>
+      </c>
+      <c r="F198" t="s">
         <v>387</v>
-      </c>
-      <c r="F198" t="s">
-        <v>388</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7354,10 +7351,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>388</v>
+      </c>
+      <c r="F199" t="s">
         <v>389</v>
-      </c>
-      <c r="F199" t="s">
-        <v>390</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7383,10 +7380,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>390</v>
+      </c>
+      <c r="F200" t="s">
         <v>391</v>
-      </c>
-      <c r="F200" t="s">
-        <v>392</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7412,10 +7409,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>392</v>
+      </c>
+      <c r="F201" t="s">
         <v>393</v>
-      </c>
-      <c r="F201" t="s">
-        <v>394</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7441,10 +7438,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>394</v>
+      </c>
+      <c r="F202" t="s">
         <v>395</v>
-      </c>
-      <c r="F202" t="s">
-        <v>396</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7470,10 +7467,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>396</v>
+      </c>
+      <c r="F203" t="s">
         <v>397</v>
-      </c>
-      <c r="F203" t="s">
-        <v>398</v>
       </c>
       <c r="G203" t="n">
         <v>3</v>
@@ -7499,10 +7496,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>398</v>
+      </c>
+      <c r="F204" t="s">
         <v>399</v>
-      </c>
-      <c r="F204" t="s">
-        <v>400</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7528,10 +7525,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>400</v>
+      </c>
+      <c r="F205" t="s">
         <v>401</v>
-      </c>
-      <c r="F205" t="s">
-        <v>402</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7557,10 +7554,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>402</v>
+      </c>
+      <c r="F206" t="s">
         <v>403</v>
-      </c>
-      <c r="F206" t="s">
-        <v>404</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7586,10 +7583,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>404</v>
+      </c>
+      <c r="F207" t="s">
         <v>405</v>
-      </c>
-      <c r="F207" t="s">
-        <v>406</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7615,10 +7612,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>406</v>
+      </c>
+      <c r="F208" t="s">
         <v>407</v>
-      </c>
-      <c r="F208" t="s">
-        <v>408</v>
       </c>
       <c r="G208" t="n">
         <v>8</v>
@@ -7644,10 +7641,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F209" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
